--- a/Доска.xlsx
+++ b/Доска.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>H</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -85,14 +88,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,148 +401,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="5.7109375" customWidth="1"/>
+    <col min="2" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="J2" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G10" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="H10" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="I10" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Доска.xlsx
+++ b/Доска.xlsx
@@ -16,12 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>R</t>
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -47,7 +77,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,6 +87,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -99,6 +141,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,15 +491,27 @@
       <c r="A2" s="3">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,14 +523,28 @@
       <c r="A3" s="3">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="J3" s="4">
         <v>6</v>
       </c>
@@ -481,8 +556,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -496,9 +571,11 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -512,9 +589,13 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -529,7 +610,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -542,14 +623,28 @@
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
@@ -558,15 +653,25 @@
       <c r="A9" s="3">
         <v>0</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,6 +703,32 @@
       </c>
       <c r="I10" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
